--- a/testing/Features/testData/postEcho2.xlsx
+++ b/testing/Features/testData/postEcho2.xlsx
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
